--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627253.0540587533</v>
+        <v>632667.2362292361</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6726151.932442132</v>
+        <v>6726151.932442133</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16878236.94693341</v>
+        <v>16878236.9469334</v>
       </c>
     </row>
     <row r="9">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.094292218001788</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>1.242384443689588</v>
       </c>
       <c r="U17" t="n">
-        <v>1.094292218001788</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,58 +1929,58 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.094292218001788</v>
       </c>
-      <c r="F18" t="n">
+      <c r="T18" t="n">
         <v>1.242384443689588</v>
       </c>
-      <c r="G18" t="n">
+      <c r="U18" t="n">
         <v>1.242384443689588</v>
       </c>
-      <c r="H18" t="n">
+      <c r="V18" t="n">
         <v>1.242384443689588</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.242384443689588</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1.242384443689588</v>
@@ -2011,64 +2011,64 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.242384443689588</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.242384443689588</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.094292218001788</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.242384443689588</v>
       </c>
     </row>
     <row r="20">
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>83.99084725370552</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>83.99084725370552</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>83.99084725370552</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>73.97913826106378</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>83.99084725370552</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>83.99084725370552</v>
-      </c>
       <c r="X20" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>73.97913826106378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="U21" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.3753537052534</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>83.99084725370552</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>70.37535370525335</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2394,59 +2394,59 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="C24" t="n">
+        <v>73.97913826106378</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>73.97913826106378</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>83.99084725370552</v>
-      </c>
-      <c r="X24" t="n">
-        <v>83.99084725370552</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>70.37535370525335</v>
       </c>
       <c r="E25" t="n">
         <v>83.99084725370552</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.37535370525335</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,23 +2552,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>73.97913826106378</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="U26" t="n">
-        <v>73.97913826106378</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,14 +2631,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>77.10186837851518</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.86811713625417</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>73.97913826106378</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="X27" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>70.37535370525335</v>
       </c>
       <c r="H28" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>83.99084725370552</v>
       </c>
       <c r="W28" t="n">
-        <v>70.3753537052534</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,26 +2792,26 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>83.99084725370552</v>
+        <v>73.97913826106378</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>73.97913826106378</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>73.97913826106378</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>83.99084725370552</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>70.37535370525335</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>70.3753537052534</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="W31" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>73.97913826106378</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>73.97913826106378</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>83.99084725370552</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,73 +3108,73 @@
         <v>83.99084725370552</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>73.97913826106378</v>
       </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="C34" t="n">
-        <v>70.3753537052534</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="F34" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>70.37535370525335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>73.97913826106378</v>
-      </c>
-      <c r="F35" t="n">
-        <v>83.99084725370552</v>
       </c>
       <c r="G35" t="n">
         <v>83.99084725370552</v>
@@ -3284,7 +3284,7 @@
         <v>83.99084725370552</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3342,76 +3342,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
         <v>73.97913826106378</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>83.99084725370552</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>83.99084725370552</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,70 +3421,70 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>79.42209328919441</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>74.94410766976452</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>83.99084725370552</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>70.3753537052534</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>83.99084725370552</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,20 +3503,20 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>73.97913826106378</v>
+      </c>
+      <c r="F38" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.97913826106378</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="X38" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73.97913826106378</v>
       </c>
       <c r="D39" t="n">
-        <v>77.10186837851518</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,55 +3597,55 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>80.86811713625417</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>83.99084725370552</v>
       </c>
       <c r="J40" t="n">
-        <v>74.94410766976452</v>
+        <v>70.3753537052534</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.35141803522635</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="S40" t="n">
-        <v>15.07067525396805</v>
-      </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.884846043062</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>82.74846281001594</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>82.74846281001594</v>
       </c>
       <c r="W41" t="n">
+        <v>72.88484604306201</v>
+      </c>
+      <c r="X41" t="n">
         <v>82.74846281001594</v>
       </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>82.74846281001594</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>72.884846043062</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.93350268848494</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.699806164593</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>82.74846281001594</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>82.74846281001594</v>
       </c>
     </row>
     <row r="43">
@@ -3898,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.74846281001594</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>82.74846281001594</v>
       </c>
       <c r="E43" t="n">
-        <v>82.74846281001594</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>82.74846281001594</v>
+        <v>72.884846043062</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.35141803522635</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>82.74846281001594</v>
       </c>
       <c r="S43" t="n">
-        <v>8.533428007835667</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="I17" t="n">
         <v>0.09939075549516702</v>
       </c>
       <c r="J17" t="n">
-        <v>1.329351354747859</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="K17" t="n">
-        <v>1.329351354747859</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="L17" t="n">
-        <v>1.329351354747859</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="M17" t="n">
-        <v>1.329351354747859</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="N17" t="n">
-        <v>1.329351354747859</v>
+        <v>1.279655977000275</v>
       </c>
       <c r="O17" t="n">
         <v>2.509616576252967</v>
@@ -5546,19 +5546,19 @@
         <v>1.204736430244448</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="V17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="W17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="X17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.09939075549516702</v>
+        <v>1.204736430244448</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.969537774758351</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="C18" t="n">
-        <v>4.969537774758351</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="D18" t="n">
-        <v>4.969537774758351</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="E18" t="n">
-        <v>3.86419210000907</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="F18" t="n">
-        <v>2.609258318504435</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="G18" t="n">
-        <v>1.354324536999801</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="H18" t="n">
         <v>0.09939075549516702</v>
@@ -5619,25 +5619,25 @@
         <v>4.969537774758351</v>
       </c>
       <c r="S18" t="n">
-        <v>4.969537774758351</v>
+        <v>3.86419210000907</v>
       </c>
       <c r="T18" t="n">
-        <v>4.969537774758351</v>
+        <v>2.609258318504435</v>
       </c>
       <c r="U18" t="n">
-        <v>4.969537774758351</v>
+        <v>1.354324536999801</v>
       </c>
       <c r="V18" t="n">
-        <v>4.969537774758351</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="W18" t="n">
-        <v>4.969537774758351</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="X18" t="n">
-        <v>4.969537774758351</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.969537774758351</v>
+        <v>0.09939075549516702</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.459670211749082</v>
+        <v>1.354324536999801</v>
       </c>
       <c r="C19" t="n">
-        <v>1.204736430244448</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="D19" t="n">
-        <v>1.204736430244448</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="E19" t="n">
-        <v>1.204736430244448</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="F19" t="n">
         <v>0.09939075549516702</v>
@@ -5674,19 +5674,19 @@
         <v>0.09939075549516702</v>
       </c>
       <c r="K19" t="n">
-        <v>1.329351354747859</v>
+        <v>0.09939075549516702</v>
       </c>
       <c r="L19" t="n">
         <v>1.329351354747859</v>
       </c>
       <c r="M19" t="n">
-        <v>1.329351354747859</v>
+        <v>2.559311954000551</v>
       </c>
       <c r="N19" t="n">
-        <v>2.509616576252967</v>
+        <v>3.789272553253243</v>
       </c>
       <c r="O19" t="n">
-        <v>3.739577175505659</v>
+        <v>4.969537774758351</v>
       </c>
       <c r="P19" t="n">
         <v>4.969537774758351</v>
@@ -5710,13 +5710,13 @@
         <v>4.969537774758351</v>
       </c>
       <c r="W19" t="n">
-        <v>4.969537774758351</v>
+        <v>3.714603993253716</v>
       </c>
       <c r="X19" t="n">
-        <v>4.969537774758351</v>
+        <v>2.459670211749082</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.714603993253716</v>
+        <v>1.354324536999801</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="C20" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="D20" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="E20" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="F20" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="G20" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="H20" t="n">
         <v>6.719267780296442</v>
@@ -5750,25 +5750,25 @@
         <v>6.719267780296442</v>
       </c>
       <c r="J20" t="n">
-        <v>6.719267780296442</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="K20" t="n">
-        <v>6.719267780296442</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="L20" t="n">
-        <v>89.87020656146491</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="M20" t="n">
-        <v>173.0211453426334</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="N20" t="n">
-        <v>256.1720841238018</v>
+        <v>126.8310668662554</v>
       </c>
       <c r="O20" t="n">
-        <v>335.9633890148221</v>
+        <v>200.6246606115613</v>
       </c>
       <c r="P20" t="n">
-        <v>335.9633890148221</v>
+        <v>283.7755993927298</v>
       </c>
       <c r="Q20" t="n">
         <v>335.9633890148221</v>
@@ -5777,7 +5777,7 @@
         <v>335.9633890148221</v>
       </c>
       <c r="S20" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="T20" t="n">
         <v>251.1241493646145</v>
@@ -5789,13 +5789,13 @@
         <v>251.1241493646145</v>
       </c>
       <c r="W20" t="n">
-        <v>166.2849097144069</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="X20" t="n">
-        <v>81.44567006419926</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.44567006419926</v>
+        <v>176.3977470807117</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="C21" t="n">
         <v>6.719267780296442</v>
@@ -5835,19 +5835,19 @@
         <v>35.03952328758472</v>
       </c>
       <c r="L21" t="n">
-        <v>86.51057267131671</v>
+        <v>35.03952328758472</v>
       </c>
       <c r="M21" t="n">
         <v>86.51057267131671</v>
       </c>
       <c r="N21" t="n">
-        <v>86.51057267131671</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="O21" t="n">
-        <v>169.6615114524852</v>
+        <v>252.8124502336536</v>
       </c>
       <c r="P21" t="n">
-        <v>252.8124502336536</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="Q21" t="n">
         <v>335.9633890148221</v>
@@ -5859,22 +5859,22 @@
         <v>261.2369867309193</v>
       </c>
       <c r="T21" t="n">
-        <v>261.2369867309193</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="U21" t="n">
         <v>176.3977470807117</v>
       </c>
       <c r="V21" t="n">
-        <v>91.55850743050405</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="W21" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="X21" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.80548364418878</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="C22" t="n">
-        <v>77.80548364418878</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="D22" t="n">
-        <v>77.80548364418878</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="E22" t="n">
-        <v>77.80548364418878</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="F22" t="n">
-        <v>77.80548364418878</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="G22" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="H22" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="I22" t="n">
         <v>6.719267780296442</v>
@@ -5920,10 +5920,10 @@
         <v>159.8920645369976</v>
       </c>
       <c r="N22" t="n">
-        <v>243.0430033181661</v>
+        <v>243.043003318166</v>
       </c>
       <c r="O22" t="n">
-        <v>303.8300581375175</v>
+        <v>303.8300581375174</v>
       </c>
       <c r="P22" t="n">
         <v>332.3232025948116</v>
@@ -5932,28 +5932,28 @@
         <v>332.3232025948116</v>
       </c>
       <c r="R22" t="n">
-        <v>247.483962944604</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="S22" t="n">
-        <v>162.6447232943964</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="T22" t="n">
-        <v>162.6447232943964</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="U22" t="n">
-        <v>162.6447232943964</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="V22" t="n">
-        <v>77.80548364418878</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="W22" t="n">
-        <v>77.80548364418878</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="X22" t="n">
-        <v>77.80548364418878</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.80548364418878</v>
+        <v>176.3977470807117</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>6.719267780296442</v>
       </c>
       <c r="J23" t="n">
-        <v>6.719267780296442</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="K23" t="n">
-        <v>6.719267780296442</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="L23" t="n">
-        <v>6.719267780296442</v>
+        <v>86.51057267131671</v>
       </c>
       <c r="M23" t="n">
-        <v>89.87020656146491</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="N23" t="n">
-        <v>173.0211453426334</v>
+        <v>252.8124502336536</v>
       </c>
       <c r="O23" t="n">
-        <v>256.1720841238018</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="P23" t="n">
-        <v>283.7755993927298</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="Q23" t="n">
         <v>335.9633890148221</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.2849097144069</v>
+        <v>81.44567006419926</v>
       </c>
       <c r="C24" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="D24" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="E24" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="F24" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="G24" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="H24" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="I24" t="n">
         <v>6.719267780296442</v>
@@ -6072,19 +6072,19 @@
         <v>35.03952328758472</v>
       </c>
       <c r="L24" t="n">
-        <v>35.03952328758472</v>
+        <v>86.51057267131671</v>
       </c>
       <c r="M24" t="n">
-        <v>35.03952328758472</v>
+        <v>86.51057267131671</v>
       </c>
       <c r="N24" t="n">
-        <v>86.51057267131671</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="O24" t="n">
-        <v>169.6615114524852</v>
+        <v>252.8124502336536</v>
       </c>
       <c r="P24" t="n">
-        <v>252.8124502336536</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="Q24" t="n">
         <v>335.9633890148221</v>
@@ -6093,22 +6093,22 @@
         <v>335.9633890148221</v>
       </c>
       <c r="S24" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="T24" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="U24" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="V24" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="W24" t="n">
         <v>251.1241493646145</v>
       </c>
       <c r="X24" t="n">
-        <v>166.2849097144069</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="Y24" t="n">
         <v>166.2849097144069</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.55850743050405</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="C25" t="n">
-        <v>91.55850743050405</v>
+        <v>162.6447232943963</v>
       </c>
       <c r="D25" t="n">
         <v>91.55850743050405</v>
@@ -6172,25 +6172,25 @@
         <v>332.3232025948116</v>
       </c>
       <c r="S25" t="n">
-        <v>261.2369867309193</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="T25" t="n">
-        <v>261.2369867309193</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="U25" t="n">
-        <v>261.2369867309193</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="V25" t="n">
-        <v>261.2369867309193</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="W25" t="n">
-        <v>176.3977470807117</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="X25" t="n">
-        <v>91.55850743050405</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.55850743050405</v>
+        <v>332.3232025948116</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.55850743050405</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="C26" t="n">
-        <v>91.55850743050405</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="D26" t="n">
         <v>91.55850743050405</v>
       </c>
       <c r="E26" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="F26" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="G26" t="n">
         <v>6.719267780296442</v>
@@ -6224,22 +6224,22 @@
         <v>6.719267780296442</v>
       </c>
       <c r="J26" t="n">
-        <v>6.719267780296442</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="K26" t="n">
-        <v>89.87020656146491</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="L26" t="n">
-        <v>89.87020656146491</v>
+        <v>117.4737218303928</v>
       </c>
       <c r="M26" t="n">
-        <v>89.87020656146491</v>
+        <v>200.6246606115613</v>
       </c>
       <c r="N26" t="n">
-        <v>173.0211453426334</v>
+        <v>200.6246606115613</v>
       </c>
       <c r="O26" t="n">
-        <v>256.1720841238018</v>
+        <v>200.6246606115613</v>
       </c>
       <c r="P26" t="n">
         <v>283.7755993927298</v>
@@ -6254,22 +6254,22 @@
         <v>335.9633890148221</v>
       </c>
       <c r="T26" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="U26" t="n">
-        <v>261.2369867309193</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="V26" t="n">
-        <v>176.3977470807117</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="W26" t="n">
-        <v>91.55850743050405</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="X26" t="n">
-        <v>91.55850743050405</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.55850743050405</v>
+        <v>251.1241493646145</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6282,7 @@
         <v>91.55850743050405</v>
       </c>
       <c r="C27" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="D27" t="n">
         <v>6.719267780296442</v>
@@ -6309,46 +6309,46 @@
         <v>118.1904620687532</v>
       </c>
       <c r="L27" t="n">
-        <v>201.3414008499217</v>
+        <v>118.1904620687532</v>
       </c>
       <c r="M27" t="n">
-        <v>201.3414008499217</v>
+        <v>118.1904620687532</v>
       </c>
       <c r="N27" t="n">
-        <v>201.3414008499217</v>
+        <v>118.1904620687532</v>
       </c>
       <c r="O27" t="n">
+        <v>169.6615114524852</v>
+      </c>
+      <c r="P27" t="n">
         <v>252.8124502336536</v>
-      </c>
-      <c r="P27" t="n">
-        <v>335.9633890148221</v>
       </c>
       <c r="Q27" t="n">
         <v>335.9633890148221</v>
       </c>
       <c r="R27" t="n">
-        <v>335.9633890148221</v>
+        <v>254.278422210525</v>
       </c>
       <c r="S27" t="n">
-        <v>335.9633890148221</v>
+        <v>254.278422210525</v>
       </c>
       <c r="T27" t="n">
-        <v>335.9633890148221</v>
+        <v>254.278422210525</v>
       </c>
       <c r="U27" t="n">
-        <v>335.9633890148221</v>
+        <v>254.278422210525</v>
       </c>
       <c r="V27" t="n">
-        <v>335.9633890148221</v>
+        <v>254.278422210525</v>
       </c>
       <c r="W27" t="n">
-        <v>261.2369867309193</v>
+        <v>169.4391825603174</v>
       </c>
       <c r="X27" t="n">
-        <v>176.3977470807117</v>
+        <v>169.4391825603174</v>
       </c>
       <c r="Y27" t="n">
-        <v>91.55850743050405</v>
+        <v>169.4391825603174</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0379335007221</v>
+        <v>162.6447232943963</v>
       </c>
       <c r="C28" t="n">
-        <v>180.0379335007221</v>
+        <v>162.6447232943963</v>
       </c>
       <c r="D28" t="n">
-        <v>95.19869385051456</v>
+        <v>162.6447232943963</v>
       </c>
       <c r="E28" t="n">
-        <v>95.19869385051456</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="F28" t="n">
-        <v>95.19869385051456</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="G28" t="n">
-        <v>95.19869385051456</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="H28" t="n">
-        <v>10.35945420030695</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="I28" t="n">
-        <v>10.35945420030695</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="J28" t="n">
-        <v>10.35945420030695</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="K28" t="n">
-        <v>18.27166200051018</v>
+        <v>14.63147558049967</v>
       </c>
       <c r="L28" t="n">
-        <v>83.9229985099295</v>
+        <v>80.28281208991899</v>
       </c>
       <c r="M28" t="n">
-        <v>163.5322509570081</v>
+        <v>159.8920645369976</v>
       </c>
       <c r="N28" t="n">
-        <v>246.6831897381765</v>
+        <v>243.043003318166</v>
       </c>
       <c r="O28" t="n">
-        <v>307.470244557528</v>
+        <v>303.8300581375174</v>
       </c>
       <c r="P28" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="Q28" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="R28" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="S28" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="T28" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="U28" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="V28" t="n">
-        <v>251.1241493646145</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="W28" t="n">
-        <v>180.0379335007221</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="X28" t="n">
-        <v>180.0379335007221</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.0379335007221</v>
+        <v>247.4839629446039</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>176.3977470807117</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="C29" t="n">
         <v>176.3977470807117</v>
       </c>
       <c r="D29" t="n">
-        <v>91.55850743050405</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="E29" t="n">
-        <v>91.55850743050405</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="F29" t="n">
         <v>91.55850743050405</v>
@@ -6455,25 +6455,25 @@
         <v>91.55850743050405</v>
       </c>
       <c r="H29" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="I29" t="n">
         <v>6.719267780296442</v>
       </c>
       <c r="J29" t="n">
-        <v>6.719267780296442</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="K29" t="n">
-        <v>6.719267780296442</v>
+        <v>126.8310668662554</v>
       </c>
       <c r="L29" t="n">
-        <v>89.87020656146491</v>
+        <v>209.9820056474239</v>
       </c>
       <c r="M29" t="n">
-        <v>117.4737218303928</v>
+        <v>209.9820056474239</v>
       </c>
       <c r="N29" t="n">
-        <v>200.6246606115613</v>
+        <v>209.9820056474239</v>
       </c>
       <c r="O29" t="n">
         <v>283.7755993927298</v>
@@ -6485,28 +6485,28 @@
         <v>335.9633890148221</v>
       </c>
       <c r="R29" t="n">
-        <v>251.1241493646145</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="S29" t="n">
-        <v>251.1241493646145</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="T29" t="n">
-        <v>251.1241493646145</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1241493646145</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="V29" t="n">
-        <v>251.1241493646145</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="W29" t="n">
-        <v>251.1241493646145</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="X29" t="n">
-        <v>176.3977470807117</v>
+        <v>261.2369867309193</v>
       </c>
       <c r="Y29" t="n">
-        <v>176.3977470807117</v>
+        <v>261.2369867309193</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="C30" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="D30" t="n">
-        <v>6.719267780296442</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="E30" t="n">
-        <v>6.719267780296442</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="F30" t="n">
         <v>6.719267780296442</v>
@@ -6546,25 +6546,25 @@
         <v>118.1904620687532</v>
       </c>
       <c r="L30" t="n">
-        <v>118.1904620687532</v>
+        <v>201.3414008499217</v>
       </c>
       <c r="M30" t="n">
-        <v>118.1904620687532</v>
+        <v>284.4923396310901</v>
       </c>
       <c r="N30" t="n">
-        <v>118.1904620687532</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="O30" t="n">
-        <v>201.3414008499217</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="P30" t="n">
-        <v>252.8124502336536</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="Q30" t="n">
         <v>335.9633890148221</v>
       </c>
       <c r="R30" t="n">
-        <v>261.2369867309193</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="S30" t="n">
         <v>261.2369867309193</v>
@@ -6582,10 +6582,10 @@
         <v>176.3977470807117</v>
       </c>
       <c r="X30" t="n">
-        <v>91.55850743050405</v>
+        <v>176.3977470807117</v>
       </c>
       <c r="Y30" t="n">
-        <v>91.55850743050405</v>
+        <v>176.3977470807117</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.719267780296442</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="C31" t="n">
-        <v>6.719267780296442</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="D31" t="n">
-        <v>6.719267780296442</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="E31" t="n">
         <v>6.719267780296442</v>
@@ -6631,10 +6631,10 @@
         <v>159.8920645369976</v>
       </c>
       <c r="N31" t="n">
-        <v>243.0430033181661</v>
+        <v>243.043003318166</v>
       </c>
       <c r="O31" t="n">
-        <v>303.8300581375175</v>
+        <v>303.8300581375174</v>
       </c>
       <c r="P31" t="n">
         <v>332.3232025948116</v>
@@ -6646,25 +6646,25 @@
         <v>332.3232025948116</v>
       </c>
       <c r="S31" t="n">
-        <v>332.3232025948116</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="T31" t="n">
-        <v>332.3232025948116</v>
+        <v>162.6447232943963</v>
       </c>
       <c r="U31" t="n">
-        <v>332.3232025948116</v>
+        <v>162.6447232943963</v>
       </c>
       <c r="V31" t="n">
-        <v>261.2369867309193</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="W31" t="n">
-        <v>176.3977470807117</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="X31" t="n">
-        <v>91.55850743050405</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.719267780296442</v>
+        <v>77.80548364418873</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>81.44567006419926</v>
       </c>
       <c r="C32" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="D32" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="E32" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="F32" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="G32" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="H32" t="n">
-        <v>81.44567006419926</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="I32" t="n">
         <v>6.719267780296442</v>
@@ -6701,19 +6701,19 @@
         <v>6.719267780296442</v>
       </c>
       <c r="K32" t="n">
-        <v>6.719267780296442</v>
+        <v>34.32278304922437</v>
       </c>
       <c r="L32" t="n">
-        <v>89.87020656146491</v>
+        <v>117.4737218303928</v>
       </c>
       <c r="M32" t="n">
-        <v>89.87020656146491</v>
+        <v>200.6246606115613</v>
       </c>
       <c r="N32" t="n">
-        <v>173.0211453426334</v>
+        <v>283.7755993927298</v>
       </c>
       <c r="O32" t="n">
-        <v>200.6246606115613</v>
+        <v>283.7755993927298</v>
       </c>
       <c r="P32" t="n">
         <v>283.7755993927298</v>
@@ -6725,22 +6725,22 @@
         <v>335.9633890148221</v>
       </c>
       <c r="S32" t="n">
+        <v>335.9633890148221</v>
+      </c>
+      <c r="T32" t="n">
+        <v>335.9633890148221</v>
+      </c>
+      <c r="U32" t="n">
         <v>251.1241493646145</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
+        <v>251.1241493646145</v>
+      </c>
+      <c r="W32" t="n">
         <v>166.2849097144069</v>
       </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
         <v>166.2849097144069</v>
-      </c>
-      <c r="V32" t="n">
-        <v>81.44567006419926</v>
-      </c>
-      <c r="W32" t="n">
-        <v>81.44567006419926</v>
-      </c>
-      <c r="X32" t="n">
-        <v>81.44567006419926</v>
       </c>
       <c r="Y32" t="n">
         <v>81.44567006419926</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>91.55850743050405</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="C33" t="n">
         <v>6.719267780296442</v>
@@ -6780,16 +6780,16 @@
         <v>35.03952328758472</v>
       </c>
       <c r="K33" t="n">
+        <v>35.03952328758472</v>
+      </c>
+      <c r="L33" t="n">
         <v>118.1904620687532</v>
       </c>
-      <c r="L33" t="n">
-        <v>201.3414008499217</v>
-      </c>
       <c r="M33" t="n">
-        <v>284.4923396310901</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="N33" t="n">
-        <v>335.9633890148221</v>
+        <v>252.8124502336536</v>
       </c>
       <c r="O33" t="n">
         <v>335.9633890148221</v>
@@ -6804,25 +6804,25 @@
         <v>335.9633890148221</v>
       </c>
       <c r="S33" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="T33" t="n">
-        <v>335.9633890148221</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="U33" t="n">
-        <v>335.9633890148221</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="V33" t="n">
-        <v>261.2369867309193</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="W33" t="n">
-        <v>261.2369867309193</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="X33" t="n">
-        <v>261.2369867309193</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="Y33" t="n">
-        <v>176.3977470807117</v>
+        <v>91.55850743050405</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.2849097144069</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="C34" t="n">
-        <v>95.19869385051453</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="D34" t="n">
-        <v>10.35945420030692</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="E34" t="n">
-        <v>10.35945420030692</v>
+        <v>162.6447232943963</v>
       </c>
       <c r="F34" t="n">
-        <v>10.35945420030692</v>
+        <v>77.80548364418873</v>
       </c>
       <c r="G34" t="n">
-        <v>10.35945420030692</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="H34" t="n">
-        <v>10.35945420030692</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="I34" t="n">
-        <v>10.35945420030692</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="J34" t="n">
-        <v>10.35945420030692</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="K34" t="n">
-        <v>18.27166200051015</v>
+        <v>14.63147558049967</v>
       </c>
       <c r="L34" t="n">
-        <v>83.92299850992947</v>
+        <v>80.28281208991899</v>
       </c>
       <c r="M34" t="n">
-        <v>163.5322509570081</v>
+        <v>159.8920645369976</v>
       </c>
       <c r="N34" t="n">
-        <v>246.6831897381765</v>
+        <v>243.043003318166</v>
       </c>
       <c r="O34" t="n">
-        <v>307.470244557528</v>
+        <v>303.8300581375174</v>
       </c>
       <c r="P34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="Q34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="R34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="S34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="T34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="U34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="V34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="W34" t="n">
-        <v>335.9633890148221</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="X34" t="n">
-        <v>335.9633890148221</v>
+        <v>247.4839629446039</v>
       </c>
       <c r="Y34" t="n">
-        <v>251.1241493646145</v>
+        <v>247.4839629446039</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>335.9633890148221</v>
       </c>
       <c r="E35" t="n">
+        <v>335.9633890148221</v>
+      </c>
+      <c r="F35" t="n">
         <v>261.2369867309193</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>176.3977470807117</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>91.55850743050405</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6.719267780296442</v>
       </c>
       <c r="I35" t="n">
         <v>6.719267780296442</v>
@@ -6941,16 +6941,16 @@
         <v>43.68012808508693</v>
       </c>
       <c r="L35" t="n">
+        <v>43.68012808508693</v>
+      </c>
+      <c r="M35" t="n">
+        <v>43.68012808508693</v>
+      </c>
+      <c r="N35" t="n">
         <v>117.4737218303928</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>200.6246606115613</v>
-      </c>
-      <c r="N35" t="n">
-        <v>283.7755993927298</v>
-      </c>
-      <c r="O35" t="n">
-        <v>283.7755993927298</v>
       </c>
       <c r="P35" t="n">
         <v>283.7755993927298</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>251.1241493646145</v>
+        <v>81.44567006419926</v>
       </c>
       <c r="C36" t="n">
-        <v>176.3977470807117</v>
+        <v>81.44567006419926</v>
       </c>
       <c r="D36" t="n">
-        <v>91.55850743050405</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="E36" t="n">
-        <v>91.55850743050405</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="F36" t="n">
         <v>6.719267780296442</v>
@@ -7014,22 +7014,22 @@
         <v>6.719267780296442</v>
       </c>
       <c r="J36" t="n">
-        <v>35.03952328758472</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="K36" t="n">
-        <v>35.03952328758472</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="L36" t="n">
-        <v>35.03952328758472</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="M36" t="n">
-        <v>118.1904620687532</v>
+        <v>89.87020656146491</v>
       </c>
       <c r="N36" t="n">
-        <v>201.3414008499217</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="O36" t="n">
-        <v>252.8124502336536</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="P36" t="n">
         <v>252.8124502336536</v>
@@ -7041,13 +7041,13 @@
         <v>335.9633890148221</v>
       </c>
       <c r="S36" t="n">
-        <v>251.1241493646145</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="T36" t="n">
-        <v>251.1241493646145</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="U36" t="n">
-        <v>251.1241493646145</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="V36" t="n">
         <v>251.1241493646145</v>
@@ -7059,7 +7059,7 @@
         <v>251.1241493646145</v>
       </c>
       <c r="Y36" t="n">
-        <v>251.1241493646145</v>
+        <v>166.2849097144069</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.55850743050405</v>
+        <v>162.6447232943964</v>
       </c>
       <c r="C37" t="n">
-        <v>91.55850743050405</v>
+        <v>162.6447232943964</v>
       </c>
       <c r="D37" t="n">
-        <v>91.55850743050405</v>
+        <v>162.6447232943964</v>
       </c>
       <c r="E37" t="n">
-        <v>91.55850743050405</v>
+        <v>162.6447232943964</v>
       </c>
       <c r="F37" t="n">
-        <v>91.55850743050405</v>
+        <v>82.42038663864446</v>
       </c>
       <c r="G37" t="n">
-        <v>6.719267780296442</v>
+        <v>82.42038663864446</v>
       </c>
       <c r="H37" t="n">
-        <v>6.719267780296442</v>
+        <v>82.42038663864446</v>
       </c>
       <c r="I37" t="n">
-        <v>6.719267780296442</v>
+        <v>82.42038663864446</v>
       </c>
       <c r="J37" t="n">
         <v>6.719267780296442</v>
@@ -7120,25 +7120,25 @@
         <v>332.3232025948116</v>
       </c>
       <c r="S37" t="n">
-        <v>261.2369867309193</v>
+        <v>332.3232025948116</v>
       </c>
       <c r="T37" t="n">
-        <v>261.2369867309193</v>
+        <v>247.483962944604</v>
       </c>
       <c r="U37" t="n">
-        <v>176.3977470807117</v>
+        <v>247.483962944604</v>
       </c>
       <c r="V37" t="n">
-        <v>176.3977470807117</v>
+        <v>247.483962944604</v>
       </c>
       <c r="W37" t="n">
-        <v>176.3977470807117</v>
+        <v>162.6447232943964</v>
       </c>
       <c r="X37" t="n">
-        <v>176.3977470807117</v>
+        <v>162.6447232943964</v>
       </c>
       <c r="Y37" t="n">
-        <v>176.3977470807117</v>
+        <v>162.6447232943964</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>251.1241493646145</v>
+      </c>
+      <c r="C38" t="n">
+        <v>251.1241493646145</v>
+      </c>
+      <c r="D38" t="n">
+        <v>251.1241493646145</v>
+      </c>
+      <c r="E38" t="n">
         <v>176.3977470807117</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>91.55850743050405</v>
-      </c>
-      <c r="D38" t="n">
-        <v>91.55850743050405</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6.719267780296442</v>
-      </c>
-      <c r="F38" t="n">
-        <v>6.719267780296442</v>
       </c>
       <c r="G38" t="n">
         <v>6.719267780296442</v>
@@ -7172,22 +7172,22 @@
         <v>6.719267780296442</v>
       </c>
       <c r="J38" t="n">
-        <v>6.719267780296442</v>
+        <v>43.68012808508693</v>
       </c>
       <c r="K38" t="n">
-        <v>6.719267780296442</v>
+        <v>117.4737218303928</v>
       </c>
       <c r="L38" t="n">
-        <v>6.719267780296442</v>
+        <v>200.6246606115613</v>
       </c>
       <c r="M38" t="n">
-        <v>34.32278304922437</v>
+        <v>283.7755993927298</v>
       </c>
       <c r="N38" t="n">
-        <v>117.4737218303928</v>
+        <v>283.7755993927298</v>
       </c>
       <c r="O38" t="n">
-        <v>200.6246606115613</v>
+        <v>283.7755993927298</v>
       </c>
       <c r="P38" t="n">
         <v>283.7755993927298</v>
@@ -7196,28 +7196,28 @@
         <v>335.9633890148221</v>
       </c>
       <c r="R38" t="n">
-        <v>261.2369867309193</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="S38" t="n">
-        <v>261.2369867309193</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="T38" t="n">
-        <v>261.2369867309193</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="U38" t="n">
-        <v>261.2369867309193</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="V38" t="n">
-        <v>261.2369867309193</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="W38" t="n">
-        <v>261.2369867309193</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="X38" t="n">
-        <v>176.3977470807117</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="Y38" t="n">
-        <v>176.3977470807117</v>
+        <v>251.1241493646145</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>169.4391825603174</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="C39" t="n">
-        <v>169.4391825603174</v>
+        <v>91.55850743050405</v>
       </c>
       <c r="D39" t="n">
         <v>91.55850743050405</v>
       </c>
       <c r="E39" t="n">
-        <v>91.55850743050405</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="F39" t="n">
-        <v>91.55850743050405</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="G39" t="n">
-        <v>91.55850743050405</v>
+        <v>6.719267780296442</v>
       </c>
       <c r="H39" t="n">
         <v>6.719267780296442</v>
@@ -7254,49 +7254,49 @@
         <v>35.03952328758472</v>
       </c>
       <c r="K39" t="n">
+        <v>35.03952328758472</v>
+      </c>
+      <c r="L39" t="n">
         <v>118.1904620687532</v>
       </c>
-      <c r="L39" t="n">
-        <v>201.3414008499217</v>
-      </c>
       <c r="M39" t="n">
-        <v>284.4923396310901</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="N39" t="n">
-        <v>284.4923396310901</v>
+        <v>169.6615114524852</v>
       </c>
       <c r="O39" t="n">
-        <v>284.4923396310901</v>
+        <v>252.8124502336536</v>
       </c>
       <c r="P39" t="n">
-        <v>284.4923396310901</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="Q39" t="n">
         <v>335.9633890148221</v>
       </c>
       <c r="R39" t="n">
-        <v>254.278422210525</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="S39" t="n">
-        <v>254.278422210525</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="T39" t="n">
-        <v>254.278422210525</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="U39" t="n">
-        <v>254.278422210525</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="V39" t="n">
-        <v>254.278422210525</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="W39" t="n">
-        <v>254.278422210525</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="X39" t="n">
-        <v>169.4391825603174</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="Y39" t="n">
-        <v>169.4391825603174</v>
+        <v>166.2849097144069</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="D40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="E40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="F40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="H40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="I40" t="n">
-        <v>82.42038663864446</v>
+        <v>81.44567006419926</v>
       </c>
       <c r="J40" t="n">
-        <v>6.719267780296442</v>
+        <v>10.35945420030692</v>
       </c>
       <c r="K40" t="n">
-        <v>14.63147558049967</v>
+        <v>18.27166200051015</v>
       </c>
       <c r="L40" t="n">
-        <v>80.28281208991899</v>
+        <v>83.92299850992947</v>
       </c>
       <c r="M40" t="n">
-        <v>159.8920645369976</v>
+        <v>163.5322509570081</v>
       </c>
       <c r="N40" t="n">
-        <v>243.0430033181661</v>
+        <v>246.6831897381765</v>
       </c>
       <c r="O40" t="n">
-        <v>303.8300581375175</v>
+        <v>307.470244557528</v>
       </c>
       <c r="P40" t="n">
-        <v>332.3232025948116</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="Q40" t="n">
-        <v>267.3217702359971</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="R40" t="n">
-        <v>182.4825305857895</v>
+        <v>335.9633890148221</v>
       </c>
       <c r="S40" t="n">
-        <v>167.2596262888521</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="T40" t="n">
-        <v>167.2596262888521</v>
+        <v>251.1241493646145</v>
       </c>
       <c r="U40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="V40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="W40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="X40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.2596262888521</v>
+        <v>166.2849097144069</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>90.20418289350424</v>
+        <v>6.619877024801275</v>
       </c>
       <c r="C41" t="n">
-        <v>90.20418289350424</v>
+        <v>6.619877024801275</v>
       </c>
       <c r="D41" t="n">
         <v>6.619877024801275</v>
@@ -7415,19 +7415,19 @@
         <v>125.5017155115075</v>
       </c>
       <c r="L41" t="n">
-        <v>207.4226936934233</v>
+        <v>196.8850834360557</v>
       </c>
       <c r="M41" t="n">
-        <v>289.3436718753391</v>
+        <v>196.8850834360557</v>
       </c>
       <c r="N41" t="n">
-        <v>330.9938512400637</v>
+        <v>196.8850834360557</v>
       </c>
       <c r="O41" t="n">
-        <v>330.9938512400637</v>
+        <v>196.8850834360557</v>
       </c>
       <c r="P41" t="n">
-        <v>330.9938512400637</v>
+        <v>278.8060616179714</v>
       </c>
       <c r="Q41" t="n">
         <v>330.9938512400637</v>
@@ -7448,13 +7448,13 @@
         <v>247.4095453713608</v>
       </c>
       <c r="W41" t="n">
-        <v>163.8252395026578</v>
+        <v>173.7884887622072</v>
       </c>
       <c r="X41" t="n">
-        <v>163.8252395026578</v>
+        <v>90.20418289350424</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.8252395026578</v>
+        <v>6.619877024801275</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>163.8252395026578</v>
+        <v>80.24093363395481</v>
       </c>
       <c r="C42" t="n">
-        <v>163.8252395026578</v>
+        <v>80.24093363395481</v>
       </c>
       <c r="D42" t="n">
-        <v>163.8252395026578</v>
+        <v>6.619877024801275</v>
       </c>
       <c r="E42" t="n">
-        <v>163.8252395026578</v>
+        <v>6.619877024801275</v>
       </c>
       <c r="F42" t="n">
-        <v>163.8252395026578</v>
+        <v>6.619877024801275</v>
       </c>
       <c r="G42" t="n">
-        <v>163.8252395026578</v>
+        <v>6.619877024801275</v>
       </c>
       <c r="H42" t="n">
-        <v>86.11463072641037</v>
+        <v>6.619877024801275</v>
       </c>
       <c r="I42" t="n">
         <v>6.619877024801275</v>
@@ -7491,16 +7491,16 @@
         <v>34.94013253208955</v>
       </c>
       <c r="K42" t="n">
-        <v>85.23091669431646</v>
+        <v>116.8611107140053</v>
       </c>
       <c r="L42" t="n">
+        <v>116.8611107140053</v>
+      </c>
+      <c r="M42" t="n">
+        <v>116.8611107140053</v>
+      </c>
+      <c r="N42" t="n">
         <v>167.1518948762322</v>
-      </c>
-      <c r="M42" t="n">
-        <v>249.072873058148</v>
-      </c>
-      <c r="N42" t="n">
-        <v>249.072873058148</v>
       </c>
       <c r="O42" t="n">
         <v>249.072873058148</v>
@@ -7533,7 +7533,7 @@
         <v>163.8252395026578</v>
       </c>
       <c r="Y42" t="n">
-        <v>163.8252395026578</v>
+        <v>80.24093363395481</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="C43" t="n">
-        <v>173.7884887622072</v>
+        <v>163.8252395026578</v>
       </c>
       <c r="D43" t="n">
-        <v>173.7884887622072</v>
+        <v>80.24093363395481</v>
       </c>
       <c r="E43" t="n">
-        <v>90.20418289350424</v>
+        <v>80.24093363395481</v>
       </c>
       <c r="F43" t="n">
         <v>6.619877024801275</v>
@@ -7588,31 +7588,31 @@
         <v>330.9938512400637</v>
       </c>
       <c r="Q43" t="n">
-        <v>265.9924188812493</v>
+        <v>330.9938512400637</v>
       </c>
       <c r="R43" t="n">
-        <v>182.4081130125463</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="S43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="T43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="U43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="V43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="W43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="X43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
       <c r="Y43" t="n">
-        <v>173.7884887622072</v>
+        <v>247.4095453713608</v>
       </c>
     </row>
     <row r="44">
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>133.0047972876922</v>
+        <v>131.7624128440026</v>
       </c>
       <c r="K17" t="n">
         <v>146.2266724399209</v>
@@ -9173,10 +9173,10 @@
         <v>128.3859697897902</v>
       </c>
       <c r="N17" t="n">
-        <v>125.8029765005163</v>
+        <v>126.9951635929457</v>
       </c>
       <c r="O17" t="n">
-        <v>133.4543313054589</v>
+        <v>133.504528656719</v>
       </c>
       <c r="P17" t="n">
         <v>148.9745603537829</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>99.99402169722775</v>
+        <v>98.75163725353816</v>
       </c>
       <c r="L19" t="n">
-        <v>96.16022021890865</v>
+        <v>97.40260466259824</v>
       </c>
       <c r="M19" t="n">
-        <v>98.09627459926523</v>
+        <v>99.33865904295482</v>
       </c>
       <c r="N19" t="n">
-        <v>89.01905668318571</v>
+        <v>89.06925403444589</v>
       </c>
       <c r="O19" t="n">
-        <v>102.8829853354797</v>
+        <v>102.8327879842195</v>
       </c>
       <c r="P19" t="n">
-        <v>107.4679937604639</v>
+        <v>106.2256093167743</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>131.7624128440026</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>146.2266724399209</v>
       </c>
       <c r="L20" t="n">
-        <v>228.1234577350834</v>
+        <v>144.1326104813778</v>
       </c>
       <c r="M20" t="n">
-        <v>212.3768170434957</v>
+        <v>128.3859697897902</v>
       </c>
       <c r="N20" t="n">
         <v>209.7938237542218</v>
       </c>
       <c r="O20" t="n">
-        <v>212.8594218807267</v>
+        <v>206.8011277941465</v>
       </c>
       <c r="P20" t="n">
-        <v>147.7321759100934</v>
+        <v>231.7230231637989</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.6000516476902</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,13 +9483,13 @@
         <v>87.67264048662292</v>
       </c>
       <c r="L21" t="n">
-        <v>123.0871979723056</v>
+        <v>71.09623899883894</v>
       </c>
       <c r="M21" t="n">
-        <v>63.41356542549462</v>
+        <v>115.4045243989613</v>
       </c>
       <c r="N21" t="n">
-        <v>50.53774702577127</v>
+        <v>134.5285942794768</v>
       </c>
       <c r="O21" t="n">
         <v>152.6672500064255</v>
@@ -9498,7 +9498,7 @@
         <v>158.6380648220664</v>
       </c>
       <c r="Q21" t="n">
-        <v>184.313966066699</v>
+        <v>100.3231188129935</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>131.7624128440026</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>146.2266724399209</v>
       </c>
       <c r="L23" t="n">
-        <v>144.1326104813778</v>
+        <v>187.3956858210039</v>
       </c>
       <c r="M23" t="n">
         <v>212.3768170434957</v>
@@ -9653,10 +9653,10 @@
         <v>216.252991466735</v>
       </c>
       <c r="P23" t="n">
-        <v>175.6145145655761</v>
+        <v>147.7321759100934</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>159.6000516476902</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,13 +9720,13 @@
         <v>87.67264048662292</v>
       </c>
       <c r="L24" t="n">
-        <v>71.09623899883894</v>
+        <v>123.0871979723056</v>
       </c>
       <c r="M24" t="n">
         <v>63.41356542549462</v>
       </c>
       <c r="N24" t="n">
-        <v>102.5287059992379</v>
+        <v>134.5285942794768</v>
       </c>
       <c r="O24" t="n">
         <v>152.6672500064255</v>
@@ -9735,7 +9735,7 @@
         <v>158.6380648220664</v>
       </c>
       <c r="Q24" t="n">
-        <v>184.313966066699</v>
+        <v>100.3231188129935</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>131.7624128440026</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>230.2175196936265</v>
+        <v>146.2266724399209</v>
       </c>
       <c r="L26" t="n">
-        <v>144.1326104813778</v>
+        <v>218.6715940624949</v>
       </c>
       <c r="M26" t="n">
-        <v>128.3859697897902</v>
+        <v>212.3768170434957</v>
       </c>
       <c r="N26" t="n">
-        <v>209.7938237542218</v>
+        <v>125.8029765005163</v>
       </c>
       <c r="O26" t="n">
-        <v>216.252991466735</v>
+        <v>132.2621442130294</v>
       </c>
       <c r="P26" t="n">
-        <v>175.6145145655761</v>
+        <v>231.7230231637989</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,7 +9957,7 @@
         <v>171.6634877403284</v>
       </c>
       <c r="L27" t="n">
-        <v>155.0870862525445</v>
+        <v>71.09623899883894</v>
       </c>
       <c r="M27" t="n">
         <v>63.41356542549462</v>
@@ -9972,7 +9972,7 @@
         <v>158.6380648220664</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.3231188129935</v>
+        <v>184.313966066699</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>131.7624128440026</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>146.2266724399209</v>
+        <v>230.2175196936265</v>
       </c>
       <c r="L29" t="n">
         <v>228.1234577350834</v>
       </c>
       <c r="M29" t="n">
-        <v>156.2683084452729</v>
+        <v>128.3859697897902</v>
       </c>
       <c r="N29" t="n">
-        <v>209.7938237542218</v>
+        <v>125.8029765005163</v>
       </c>
       <c r="O29" t="n">
-        <v>216.252991466735</v>
+        <v>206.8011277941465</v>
       </c>
       <c r="P29" t="n">
         <v>147.7321759100934</v>
@@ -10194,22 +10194,22 @@
         <v>171.6634877403284</v>
       </c>
       <c r="L30" t="n">
-        <v>71.09623899883894</v>
+        <v>155.0870862525445</v>
       </c>
       <c r="M30" t="n">
-        <v>63.41356542549462</v>
+        <v>147.4044126792002</v>
       </c>
       <c r="N30" t="n">
-        <v>50.53774702577127</v>
+        <v>102.5287059992379</v>
       </c>
       <c r="O30" t="n">
-        <v>152.6672500064255</v>
+        <v>68.67640275271999</v>
       </c>
       <c r="P30" t="n">
-        <v>126.6381765418275</v>
+        <v>74.6472175683609</v>
       </c>
       <c r="Q30" t="n">
-        <v>184.313966066699</v>
+        <v>100.3231188129935</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,22 +10349,22 @@
         <v>131.7624128440026</v>
       </c>
       <c r="K32" t="n">
-        <v>146.2266724399209</v>
+        <v>174.1090110954037</v>
       </c>
       <c r="L32" t="n">
-        <v>228.1234577350834</v>
+        <v>228.1234577350833</v>
       </c>
       <c r="M32" t="n">
-        <v>128.3859697897902</v>
+        <v>212.3768170434957</v>
       </c>
       <c r="N32" t="n">
         <v>209.7938237542218</v>
       </c>
       <c r="O32" t="n">
-        <v>160.1444828685122</v>
+        <v>132.2621442130294</v>
       </c>
       <c r="P32" t="n">
-        <v>231.7230231637989</v>
+        <v>147.7321759100934</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>171.6634877403284</v>
+        <v>87.67264048662292</v>
       </c>
       <c r="L33" t="n">
         <v>155.0870862525445</v>
       </c>
       <c r="M33" t="n">
-        <v>147.4044126792002</v>
+        <v>115.4045243989613</v>
       </c>
       <c r="N33" t="n">
-        <v>102.5287059992379</v>
+        <v>134.5285942794768</v>
       </c>
       <c r="O33" t="n">
-        <v>68.67640275271999</v>
+        <v>152.6672500064255</v>
       </c>
       <c r="P33" t="n">
         <v>74.6472175683609</v>
@@ -10589,19 +10589,19 @@
         <v>146.2266724399209</v>
       </c>
       <c r="L35" t="n">
-        <v>218.6715940624949</v>
+        <v>144.1326104813778</v>
       </c>
       <c r="M35" t="n">
-        <v>212.3768170434957</v>
+        <v>128.3859697897902</v>
       </c>
       <c r="N35" t="n">
-        <v>209.7938237542218</v>
+        <v>200.3419600816334</v>
       </c>
       <c r="O35" t="n">
-        <v>132.2621442130294</v>
+        <v>216.252991466735</v>
       </c>
       <c r="P35" t="n">
-        <v>147.7321759100934</v>
+        <v>231.7230231637989</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.48471664617826</v>
       </c>
       <c r="K36" t="n">
         <v>87.67264048662292</v>
@@ -10674,13 +10674,13 @@
         <v>147.4044126792002</v>
       </c>
       <c r="N36" t="n">
-        <v>134.5285942794768</v>
+        <v>131.1350246934685</v>
       </c>
       <c r="O36" t="n">
-        <v>120.6673617261866</v>
+        <v>68.67640275271999</v>
       </c>
       <c r="P36" t="n">
-        <v>74.6472175683609</v>
+        <v>158.6380648220664</v>
       </c>
       <c r="Q36" t="n">
         <v>184.313966066699</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>131.7624128440026</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>146.2266724399209</v>
+        <v>220.765656021038</v>
       </c>
       <c r="L38" t="n">
-        <v>144.1326104813778</v>
+        <v>228.1234577350833</v>
       </c>
       <c r="M38" t="n">
-        <v>156.2683084452729</v>
+        <v>212.3768170434957</v>
       </c>
       <c r="N38" t="n">
-        <v>209.7938237542218</v>
+        <v>125.8029765005163</v>
       </c>
       <c r="O38" t="n">
-        <v>216.252991466735</v>
+        <v>132.2621442130294</v>
       </c>
       <c r="P38" t="n">
-        <v>231.7230231637989</v>
+        <v>147.7321759100934</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6634877403284</v>
+        <v>87.67264048662292</v>
       </c>
       <c r="L39" t="n">
         <v>155.0870862525445</v>
       </c>
       <c r="M39" t="n">
-        <v>147.4044126792002</v>
+        <v>115.4045243989613</v>
       </c>
       <c r="N39" t="n">
         <v>50.53774702577127</v>
       </c>
       <c r="O39" t="n">
-        <v>68.67640275271999</v>
+        <v>152.6672500064255</v>
       </c>
       <c r="P39" t="n">
-        <v>74.6472175683609</v>
+        <v>158.6380648220664</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.3140777864602</v>
+        <v>100.3231188129935</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,22 +11063,22 @@
         <v>228.9751352499368</v>
       </c>
       <c r="L41" t="n">
-        <v>226.8810732913938</v>
+        <v>216.2370225263759</v>
       </c>
       <c r="M41" t="n">
-        <v>211.1344325998061</v>
+        <v>128.3859697897902</v>
       </c>
       <c r="N41" t="n">
-        <v>167.873864747713</v>
+        <v>125.8029765005163</v>
       </c>
       <c r="O41" t="n">
         <v>132.2621442130294</v>
       </c>
       <c r="P41" t="n">
-        <v>147.7321759100934</v>
+        <v>230.4806387201093</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.6000516476902</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>138.4714123676602</v>
+        <v>170.4211032966389</v>
       </c>
       <c r="L42" t="n">
-        <v>153.8447018088549</v>
+        <v>71.09623899883894</v>
       </c>
       <c r="M42" t="n">
-        <v>146.1620282355106</v>
+        <v>63.41356542549462</v>
       </c>
       <c r="N42" t="n">
-        <v>50.53774702577127</v>
+        <v>101.3365189068085</v>
       </c>
       <c r="O42" t="n">
-        <v>68.67640275271999</v>
+        <v>151.4248655627359</v>
       </c>
       <c r="P42" t="n">
         <v>74.6472175683609</v>
@@ -23750,7 +23750,7 @@
         <v>333.5280334246785</v>
       </c>
       <c r="I17" t="n">
-        <v>188.08967695347</v>
+        <v>186.9953847354682</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>219.311589866421</v>
       </c>
       <c r="U17" t="n">
-        <v>250.2049072300239</v>
+        <v>251.2991994480257</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,16 +23817,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>156.5507882373992</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>143.8268279496943</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7904478170248</v>
+        <v>137.0328322607144</v>
       </c>
       <c r="H18" t="n">
-        <v>107.9924977081722</v>
+        <v>109.2348821518618</v>
       </c>
       <c r="I18" t="n">
         <v>78.699806164593</v>
@@ -23859,16 +23859,16 @@
         <v>80.86811713625417</v>
       </c>
       <c r="S18" t="n">
-        <v>165.9123353052784</v>
+        <v>164.8180430872766</v>
       </c>
       <c r="T18" t="n">
-        <v>198.9124505132688</v>
+        <v>197.6700660695792</v>
       </c>
       <c r="U18" t="n">
-        <v>225.920942284758</v>
+        <v>224.6785578410684</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>231.5582027057357</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.5895957382477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>166.0044366549382</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>144.3267558049295</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7305115727882</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>285.2806138929014</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>224.4672709453476</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.3422689084052</v>
+        <v>217.490361134093</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.7547034024168</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>270.6921943669774</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23984,7 @@
         <v>414.7220692675004</v>
       </c>
       <c r="H20" t="n">
-        <v>333.5280334246785</v>
+        <v>249.537186170973</v>
       </c>
       <c r="I20" t="n">
         <v>188.08967695347</v>
@@ -24017,10 +24017,10 @@
         <v>113.3937161306679</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7880918932701</v>
+        <v>111.7972446395646</v>
       </c>
       <c r="T20" t="n">
-        <v>136.5631270564051</v>
+        <v>220.5539743101106</v>
       </c>
       <c r="U20" t="n">
         <v>251.2991994480257</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>265.2501214637075</v>
+        <v>275.2618304563492</v>
       </c>
       <c r="X20" t="n">
-        <v>285.7402534247635</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>82.54233639616182</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>88.71765173461021</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24099,16 +24099,16 @@
         <v>91.93319704421461</v>
       </c>
       <c r="T21" t="n">
-        <v>198.9124505132688</v>
+        <v>114.9216032595633</v>
       </c>
       <c r="U21" t="n">
-        <v>141.9300950310524</v>
+        <v>225.920942284758</v>
       </c>
       <c r="V21" t="n">
-        <v>148.8097398957198</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>167.7041359072141</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>62.44311539286365</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>97.3551578675348</v>
+        <v>167.7305115727882</v>
       </c>
       <c r="H22" t="n">
         <v>159.9113771039323</v>
       </c>
       <c r="I22" t="n">
-        <v>147.6174982454565</v>
+        <v>63.62665099175096</v>
       </c>
       <c r="J22" t="n">
         <v>74.94410766976452</v>
@@ -24172,7 +24172,7 @@
         <v>64.35141803522635</v>
       </c>
       <c r="R22" t="n">
-        <v>81.59096532413155</v>
+        <v>165.5818125778371</v>
       </c>
       <c r="S22" t="n">
         <v>135.4865076457172</v>
@@ -24184,13 +24184,13 @@
         <v>286.304822022727</v>
       </c>
       <c r="V22" t="n">
-        <v>168.1467960701225</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>155.3343016837838</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>82.54233639616182</v>
       </c>
       <c r="C24" t="n">
-        <v>88.71765173461021</v>
+        <v>98.72936072725196</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24303,7 +24303,7 @@
         <v>109.2348821518618</v>
       </c>
       <c r="I24" t="n">
-        <v>4.720667903529218</v>
+        <v>78.699806164593</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>80.86811713625417</v>
       </c>
       <c r="S24" t="n">
-        <v>165.9123353052784</v>
+        <v>81.92148805157287</v>
       </c>
       <c r="T24" t="n">
         <v>198.9124505132688</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>167.7041359072141</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>121.782137949772</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>121.6918485235988</v>
       </c>
     </row>
     <row r="25">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>95.84113292823177</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>83.25597384492231</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>78.24011931295901</v>
       </c>
       <c r="E25" t="n">
         <v>62.44311539286365</v>
@@ -24412,7 +24412,7 @@
         <v>165.5818125778371</v>
       </c>
       <c r="S25" t="n">
-        <v>149.1020011941693</v>
+        <v>219.4773548994227</v>
       </c>
       <c r="T25" t="n">
         <v>226.83268161678</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>202.5321510828855</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>141.7188081353316</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>308.7547034024168</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>270.6921943669774</v>
       </c>
       <c r="E26" t="n">
-        <v>297.9395228185563</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7220692675004</v>
+        <v>330.7312220137949</v>
       </c>
       <c r="H26" t="n">
         <v>333.5280334246785</v>
@@ -24494,16 +24494,16 @@
         <v>195.7880918932701</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5539743101106</v>
+        <v>136.5631270564051</v>
       </c>
       <c r="U26" t="n">
-        <v>177.3200611869619</v>
+        <v>251.2991994480257</v>
       </c>
       <c r="V26" t="n">
-        <v>243.7614112164294</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>265.2501214637075</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>89.43131527135216</v>
       </c>
       <c r="C27" t="n">
-        <v>88.71765173461021</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>63.45421831093323</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.86811713625417</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>165.9123353052784</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>177.7158448998558</v>
+        <v>167.7041359072141</v>
       </c>
       <c r="X27" t="n">
-        <v>121.782137949772</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>121.6918485235988</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>95.84113292823177</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>64.62462576450683</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>62.44311539286365</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7305115727882</v>
+        <v>97.35515786753486</v>
       </c>
       <c r="H28" t="n">
-        <v>75.92052985022674</v>
+        <v>159.9113771039323</v>
       </c>
       <c r="I28" t="n">
         <v>147.6174982454565</v>
@@ -24661,7 +24661,7 @@
         <v>168.1467960701225</v>
       </c>
       <c r="W28" t="n">
-        <v>216.1476446313376</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,25 +24680,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>281.282044517302</v>
       </c>
       <c r="D29" t="n">
-        <v>270.6921943669774</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>322.8851984880059</v>
       </c>
       <c r="G29" t="n">
         <v>414.7220692675004</v>
       </c>
       <c r="H29" t="n">
-        <v>249.537186170973</v>
+        <v>333.5280334246785</v>
       </c>
       <c r="I29" t="n">
-        <v>188.08967695347</v>
+        <v>104.0988296997645</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.40286887696233</v>
+        <v>39.41457786960407</v>
       </c>
       <c r="S29" t="n">
         <v>195.7880918932701</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>295.7519624174053</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.54233639616182</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,10 +24765,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>73.65423320169542</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>61.07836513967835</v>
       </c>
       <c r="G30" t="n">
         <v>137.0328322607144</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.888978875190389</v>
+        <v>80.86811713625417</v>
       </c>
       <c r="S30" t="n">
-        <v>165.9123353052784</v>
+        <v>91.93319704421461</v>
       </c>
       <c r="T30" t="n">
         <v>114.9216032595633</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>121.782137949772</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>76.05860894131582</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,25 +24886,25 @@
         <v>165.5818125778371</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4773548994227</v>
+        <v>135.4865076457172</v>
       </c>
       <c r="T31" t="n">
-        <v>226.83268161678</v>
+        <v>142.8418343630745</v>
       </c>
       <c r="U31" t="n">
         <v>286.304822022727</v>
       </c>
       <c r="V31" t="n">
-        <v>181.7622896185746</v>
+        <v>168.1467960701225</v>
       </c>
       <c r="W31" t="n">
-        <v>202.5321510828855</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>141.7188081353316</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>134.5938060983893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>291.2937535099438</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24935,7 @@
         <v>333.5280334246785</v>
       </c>
       <c r="I32" t="n">
-        <v>114.1105386924062</v>
+        <v>188.08967695347</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24965,25 @@
         <v>113.3937161306679</v>
       </c>
       <c r="S32" t="n">
-        <v>111.7972446395646</v>
+        <v>195.7880918932701</v>
       </c>
       <c r="T32" t="n">
-        <v>136.5631270564051</v>
+        <v>220.5539743101106</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2991994480257</v>
+        <v>167.3083521943202</v>
       </c>
       <c r="V32" t="n">
-        <v>243.7614112164294</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>265.2501214637075</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>302.2470914023481</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>82.54233639616182</v>
       </c>
       <c r="C33" t="n">
-        <v>88.71765173461021</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,25 +25044,25 @@
         <v>80.86811713625417</v>
       </c>
       <c r="S33" t="n">
-        <v>165.9123353052784</v>
+        <v>81.92148805157287</v>
       </c>
       <c r="T33" t="n">
         <v>198.9124505132688</v>
       </c>
       <c r="U33" t="n">
-        <v>225.920942284758</v>
+        <v>141.9300950310524</v>
       </c>
       <c r="V33" t="n">
-        <v>158.8214488883615</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>177.7158448998558</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>121.6918485235988</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.84113292823177</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>96.87146739337443</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>64.62462576450683</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>62.44311539286365</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>61.43020076922572</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7305115727882</v>
+        <v>97.35515786753486</v>
       </c>
       <c r="H34" t="n">
         <v>159.9113771039323</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>141.7188081353316</v>
       </c>
       <c r="Y34" t="n">
-        <v>134.5938060983893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25160,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>307.951231811198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>322.8851984880059</v>
+        <v>332.8969074806477</v>
       </c>
       <c r="G35" t="n">
         <v>330.7312220137949</v>
@@ -25172,7 +25172,7 @@
         <v>249.537186170973</v>
       </c>
       <c r="I35" t="n">
-        <v>188.08967695347</v>
+        <v>104.0988296997645</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>82.54233639616182</v>
       </c>
       <c r="C36" t="n">
-        <v>98.72936072725196</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>63.45421831093323</v>
+        <v>73.46592730357497</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>61.07836513967835</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0328322607144</v>
@@ -25281,7 +25281,7 @@
         <v>80.86811713625417</v>
       </c>
       <c r="S36" t="n">
-        <v>81.92148805157287</v>
+        <v>165.9123353052784</v>
       </c>
       <c r="T36" t="n">
         <v>198.9124505132688</v>
@@ -25290,7 +25290,7 @@
         <v>225.920942284758</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>148.8097398957198</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>121.6918485235988</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.84113292823177</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>65.99895473373684</v>
       </c>
       <c r="G37" t="n">
-        <v>83.73966431908268</v>
+        <v>167.7305115727882</v>
       </c>
       <c r="H37" t="n">
         <v>159.9113771039323</v>
@@ -25333,7 +25333,7 @@
         <v>147.6174982454565</v>
       </c>
       <c r="J37" t="n">
-        <v>74.94410766976452</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,19 +25360,19 @@
         <v>165.5818125778371</v>
       </c>
       <c r="S37" t="n">
-        <v>149.1020011941692</v>
+        <v>219.4773548994227</v>
       </c>
       <c r="T37" t="n">
-        <v>226.83268161678</v>
+        <v>142.8418343630745</v>
       </c>
       <c r="U37" t="n">
-        <v>202.3139747690215</v>
+        <v>286.304822022727</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>202.5321510828855</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>281.282044517302</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>297.9395228185563</v>
+        <v>307.951231811198</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>322.8851984880059</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7220692675004</v>
+        <v>330.7312220137949</v>
       </c>
       <c r="H38" t="n">
         <v>333.5280334246785</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>39.41457786960407</v>
+        <v>113.3937161306679</v>
       </c>
       <c r="S38" t="n">
         <v>195.7880918932701</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>265.2501214637075</v>
       </c>
       <c r="X38" t="n">
-        <v>285.7402534247635</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>98.72936072725196</v>
       </c>
       <c r="D39" t="n">
-        <v>70.34319718612358</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>73.65423320169542</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,7 +25485,7 @@
         <v>137.0328322607144</v>
       </c>
       <c r="H39" t="n">
-        <v>25.24403489815626</v>
+        <v>109.2348821518618</v>
       </c>
       <c r="I39" t="n">
         <v>78.699806164593</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.86811713625417</v>
       </c>
       <c r="S39" t="n">
         <v>165.9123353052784</v>
       </c>
       <c r="T39" t="n">
-        <v>198.9124505132688</v>
+        <v>114.9216032595633</v>
       </c>
       <c r="U39" t="n">
         <v>225.920942284758</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>148.8097398957198</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>121.782137949772</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25570,7 +25570,7 @@
         <v>63.62665099175096</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.568753964511117</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.35141803522635</v>
       </c>
       <c r="R40" t="n">
-        <v>81.59096532413155</v>
+        <v>165.5818125778371</v>
       </c>
       <c r="S40" t="n">
-        <v>204.4066796454546</v>
+        <v>135.4865076457172</v>
       </c>
       <c r="T40" t="n">
         <v>226.83268161678</v>
       </c>
       <c r="U40" t="n">
-        <v>286.304822022727</v>
+        <v>202.3139747690215</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>309.8489956204186</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>271.934578810667</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25688,13 +25688,13 @@
         <v>245.003795660119</v>
       </c>
       <c r="W41" t="n">
-        <v>266.4925059073971</v>
+        <v>276.356122674351</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>286.9826378684531</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>303.4894758460376</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25710,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>74.56021952157676</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25722,10 +25722,10 @@
         <v>137.0328322607144</v>
       </c>
       <c r="H42" t="n">
-        <v>32.30137946337685</v>
+        <v>109.2348821518618</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.699806164593</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>123.0245223934615</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>122.9342329672884</v>
       </c>
     </row>
     <row r="43">
@@ -25786,16 +25786,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>84.4983582886119</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.86701020819642</v>
       </c>
       <c r="E43" t="n">
-        <v>63.68549983655323</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.67258521291531</v>
+        <v>72.53620197986925</v>
       </c>
       <c r="G43" t="n">
         <v>167.7305115727882</v>
@@ -25828,13 +25828,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.35141803522635</v>
       </c>
       <c r="R43" t="n">
         <v>82.83334976782113</v>
       </c>
       <c r="S43" t="n">
-        <v>210.943926891587</v>
+        <v>219.4773548994227</v>
       </c>
       <c r="T43" t="n">
         <v>226.83268161678</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>369949.8534890048</v>
+        <v>369949.853489005</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>369949.8534890048</v>
+        <v>369949.8534890051</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>369949.853489005</v>
+        <v>369949.8534890049</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>369949.8534890052</v>
+        <v>369949.8534890051</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>369949.8534890051</v>
+        <v>369949.8534890052</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369050.4907941247</v>
+        <v>369050.4907941245</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
         <v>512047.711698149</v>
@@ -26326,13 +26326,13 @@
         <v>141999.8243010028</v>
       </c>
       <c r="G2" t="n">
-        <v>142439.7812073555</v>
+        <v>142439.7812073554</v>
       </c>
       <c r="H2" t="n">
         <v>171688.8583346895</v>
       </c>
       <c r="I2" t="n">
-        <v>171688.8583346896</v>
+        <v>171688.8583346895</v>
       </c>
       <c r="J2" t="n">
         <v>171688.8583346895</v>
@@ -26344,13 +26344,13 @@
         <v>171688.8583346895</v>
       </c>
       <c r="M2" t="n">
-        <v>171688.8583346895</v>
+        <v>171688.8583346896</v>
       </c>
       <c r="N2" t="n">
         <v>171688.8583346895</v>
       </c>
       <c r="O2" t="n">
-        <v>171302.9581966741</v>
+        <v>171302.9581966742</v>
       </c>
       <c r="P2" t="n">
         <v>141999.8243010028</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>45649.3840840918</v>
+        <v>45158.15081130881</v>
       </c>
       <c r="F4" t="n">
-        <v>45649.3840840918</v>
+        <v>45158.15081130881</v>
       </c>
       <c r="G4" t="n">
-        <v>45886.4233099366</v>
+        <v>45392.65084995655</v>
       </c>
       <c r="H4" t="n">
-        <v>61645.19081381611</v>
+        <v>60982.60890660316</v>
       </c>
       <c r="I4" t="n">
-        <v>61645.19081381611</v>
+        <v>60982.60890660316</v>
       </c>
       <c r="J4" t="n">
-        <v>61645.19081381611</v>
+        <v>60982.60890660316</v>
       </c>
       <c r="K4" t="n">
-        <v>61645.1908138161</v>
+        <v>60982.60890660316</v>
       </c>
       <c r="L4" t="n">
-        <v>61645.19081381611</v>
+        <v>60982.60890660316</v>
       </c>
       <c r="M4" t="n">
-        <v>61645.19081381611</v>
+        <v>60982.60890660316</v>
       </c>
       <c r="N4" t="n">
-        <v>61645.19081381611</v>
+        <v>60982.60890660317</v>
       </c>
       <c r="O4" t="n">
-        <v>61437.27620070789</v>
+        <v>60776.92149501322</v>
       </c>
       <c r="P4" t="n">
-        <v>45649.3840840918</v>
+        <v>45158.15081130881</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62887.55597252653</v>
+        <v>63647.71308519004</v>
       </c>
       <c r="C6" t="n">
-        <v>62887.55597252641</v>
+        <v>63647.7130851901</v>
       </c>
       <c r="D6" t="n">
-        <v>62887.55597252647</v>
+        <v>63647.71308519004</v>
       </c>
       <c r="E6" t="n">
-        <v>-22842.89329636767</v>
+        <v>-22351.66002358468</v>
       </c>
       <c r="F6" t="n">
-        <v>93201.62147705001</v>
+        <v>93692.85474983299</v>
       </c>
       <c r="G6" t="n">
-        <v>92988.48324313293</v>
+        <v>93482.25570311293</v>
       </c>
       <c r="H6" t="n">
-        <v>79461.92526567959</v>
+        <v>80124.50717289257</v>
       </c>
       <c r="I6" t="n">
-        <v>101788.2052679872</v>
+        <v>102450.7871752001</v>
       </c>
       <c r="J6" t="n">
-        <v>101788.2052679872</v>
+        <v>102450.7871752001</v>
       </c>
       <c r="K6" t="n">
-        <v>101788.2052679872</v>
+        <v>102450.7871752001</v>
       </c>
       <c r="L6" t="n">
-        <v>101788.2052679872</v>
+        <v>102450.7871752001</v>
       </c>
       <c r="M6" t="n">
-        <v>101788.2052679872</v>
+        <v>102450.7871752002</v>
       </c>
       <c r="N6" t="n">
-        <v>101788.2052679872</v>
+        <v>102450.7871752001</v>
       </c>
       <c r="O6" t="n">
-        <v>101685.7567172563</v>
+        <v>102346.111422951</v>
       </c>
       <c r="P6" t="n">
-        <v>93201.62147705001</v>
+        <v>93692.85474983299</v>
       </c>
     </row>
   </sheetData>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.192187092429402</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.242384443689588</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.192187092429402</v>
       </c>
       <c r="P17" t="n">
         <v>1.242384443689588</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.242384443689588</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.242384443689588</v>
       </c>
       <c r="N19" t="n">
+        <v>1.242384443689588</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.192187092429402</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.242384443689588</v>
-      </c>
       <c r="P19" t="n">
-        <v>1.242384443689588</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>37.33420232807121</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>83.99084725370552</v>
       </c>
       <c r="O20" t="n">
-        <v>80.59727766769724</v>
+        <v>74.53898358111707</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>52.71493901221448</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>51.99095897346665</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="O21" t="n">
         <v>83.99084725370552</v>
@@ -36218,7 +36218,7 @@
         <v>83.99084725370552</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>80.41338631018041</v>
       </c>
       <c r="N22" t="n">
-        <v>83.99084725370552</v>
+        <v>83.99084725370548</v>
       </c>
       <c r="O22" t="n">
         <v>61.40106547409234</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>37.33420232807121</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>43.26307533962603</v>
       </c>
       <c r="M23" t="n">
         <v>83.99084725370552</v>
@@ -36373,10 +36373,10 @@
         <v>83.99084725370552</v>
       </c>
       <c r="P23" t="n">
-        <v>27.88233865548276</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.71493901221448</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>51.99095897346665</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>51.99095897346665</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="O24" t="n">
         <v>83.99084725370552</v>
@@ -36455,7 +36455,7 @@
         <v>83.99084725370552</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>37.33420232807121</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>74.53898358111707</v>
+      </c>
+      <c r="M26" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>83.99084725370552</v>
-      </c>
-      <c r="O26" t="n">
-        <v>83.99084725370552</v>
-      </c>
-      <c r="P26" t="n">
-        <v>27.88233865548276</v>
       </c>
       <c r="Q26" t="n">
         <v>52.71493901221448</v>
@@ -36677,7 +36677,7 @@
         <v>83.99084725370552</v>
       </c>
       <c r="L27" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>83.99084725370552</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>37.33420232807121</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="L29" t="n">
         <v>83.99084725370552</v>
       </c>
       <c r="M29" t="n">
-        <v>27.88233865548275</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>83.99084725370552</v>
+        <v>74.53898358111705</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>83.99084725370552</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>51.99095897346668</v>
       </c>
       <c r="O30" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>51.99095897346665</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>80.41338631018041</v>
       </c>
       <c r="N31" t="n">
-        <v>83.99084725370552</v>
+        <v>83.99084725370548</v>
       </c>
       <c r="O31" t="n">
         <v>61.40106547409234</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.88233865548276</v>
       </c>
       <c r="L32" t="n">
         <v>83.99084725370552</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="N32" t="n">
         <v>83.99084725370552</v>
       </c>
       <c r="O32" t="n">
-        <v>27.88233865548276</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>52.71493901221448</v>
@@ -37148,19 +37148,19 @@
         <v>28.60631869423058</v>
       </c>
       <c r="K33" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>83.99084725370552</v>
       </c>
       <c r="M33" t="n">
+        <v>51.99095897346665</v>
+      </c>
+      <c r="N33" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="N33" t="n">
-        <v>51.99095897346668</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>80.41338631018041</v>
       </c>
       <c r="N34" t="n">
-        <v>83.99084725370552</v>
+        <v>83.99084725370548</v>
       </c>
       <c r="O34" t="n">
         <v>61.40106547409234</v>
@@ -37309,19 +37309,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>74.53898358111707</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>83.99084725370552</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>52.71493901221448</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>28.60631869423058</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>83.99084725370552</v>
       </c>
       <c r="N36" t="n">
+        <v>80.59727766769723</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>83.99084725370552</v>
-      </c>
-      <c r="O36" t="n">
-        <v>51.99095897346665</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>83.99084725370552</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>37.33420232807121</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>74.53898358111707</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="M38" t="n">
-        <v>27.88233865548276</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="N38" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>52.71493901221448</v>
@@ -37622,25 +37622,25 @@
         <v>28.60631869423058</v>
       </c>
       <c r="K39" t="n">
-        <v>83.99084725370552</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>83.99084725370552</v>
       </c>
       <c r="M39" t="n">
+        <v>51.99095897346665</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>83.99084725370552</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.99084725370552</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.99095897346668</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>82.74846281001594</v>
       </c>
       <c r="L41" t="n">
+        <v>72.1044120449981</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>82.74846281001594</v>
       </c>
-      <c r="M41" t="n">
-        <v>82.74846281001594</v>
-      </c>
-      <c r="N41" t="n">
-        <v>42.07088824719666</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>52.71493901221448</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>28.60631869423058</v>
       </c>
       <c r="K42" t="n">
+        <v>82.74846281001594</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>50.79877188103729</v>
       </c>
-      <c r="L42" t="n">
+      <c r="O42" t="n">
         <v>82.74846281001594</v>
-      </c>
-      <c r="M42" t="n">
-        <v>82.74846281001594</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
